--- a/deloitte-chain/Deloitte.xlsx
+++ b/deloitte-chain/Deloitte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinav/Desktop/anewhope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\POC\deloitte-chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04801849-33C3-6A47-8542-31D76CDA63CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F546D5-98BF-4142-B896-6AD06837D9DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9BACA1C7-1A47-A845-B3BE-AA9CBFDDBD37}"/>
+    <workbookView xWindow="3180" yWindow="2055" windowWidth="27645" windowHeight="16935" activeTab="1" xr2:uid="{9BACA1C7-1A47-A845-B3BE-AA9CBFDDBD37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,8 +583,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{22BCF941-91FE-7347-9768-96F80788B229}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{105D008F-B130-4EB8-B59D-25048E1717E8}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -897,7 +925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -908,15 +936,15 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
@@ -936,7 +964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
@@ -953,7 +981,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>153</v>
       </c>
@@ -970,7 +998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -987,7 +1015,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>148</v>
       </c>
@@ -1004,7 +1032,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>144</v>
       </c>
@@ -1021,7 +1049,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -1038,7 +1066,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
@@ -1055,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>136</v>
       </c>
@@ -1072,7 +1100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -1089,7 +1117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -1106,7 +1134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>127</v>
       </c>
@@ -1123,7 +1151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>124</v>
       </c>
@@ -1140,7 +1168,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -1157,7 +1185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
@@ -1174,7 +1202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -1191,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -1208,7 +1236,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
@@ -1225,7 +1253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -1242,7 +1270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -1259,7 +1287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>98</v>
       </c>
@@ -1276,7 +1304,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
@@ -1310,7 +1338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1327,7 +1355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -1344,7 +1372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -1361,7 +1389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1395,7 +1423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -1412,7 +1440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1429,7 +1457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
@@ -1463,7 +1491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1480,7 +1508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1514,7 +1542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1531,7 +1559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1565,7 +1593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
